--- a/insta/project/files/3_location_counts.xlsx
+++ b/insta/project/files/3_location_counts.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1100고지</t>
+          <t>Nimome</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -543,7 +543,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Nimome</t>
+          <t>1100고지</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -593,7 +593,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>제주도 애월읍</t>
+          <t>제주레포츠랜드</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -603,7 +603,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>제주레포츠랜드</t>
+          <t>제주도 애월읍</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -613,7 +613,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>제주고궁한복카페 jeju gogung hanbok studio</t>
+          <t>제주 함덕 서우봉 해변</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -623,7 +623,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>제주 함덕 서우봉 해변</t>
+          <t>제주고궁한복카페 jeju gogung hanbok studio</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -643,7 +643,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>연동 바오젠 거리</t>
+          <t>위미동백나무군락지</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -653,7 +653,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>위미동백나무군락지</t>
+          <t>연동 바오젠 거리</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -663,7 +663,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>제주도 서귀포 중문관광단지 濟州島西歸浦中文觀光團地</t>
+          <t>제주신화월드 Jeju Shinhwa World</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -673,7 +673,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>제주신화월드 Jeju Shinhwa World</t>
+          <t>제주도 서귀포 중문관광단지 濟州島西歸浦中文觀光團地</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,7 +693,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>고래배꼽</t>
+          <t>Woljeongri Beach</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -703,7 +703,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>고집돌우럭중문점</t>
+          <t>협재해변 Beach</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -713,7 +713,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Woljeongri Beach</t>
+          <t>고래배꼽</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -723,7 +723,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>협재해변 Beach</t>
+          <t>고집돌우럭중문점</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,7 +743,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>김녕미로공원 Jeju Kimnyoung Maze Park</t>
+          <t>제주빅볼랜드</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>제주빅볼랜드</t>
+          <t>밥깡패</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -763,7 +763,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>밥깡패</t>
+          <t>사려니숲길</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -773,7 +773,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>사려니숲길</t>
+          <t>김녕미로공원 Jeju Kimnyoung Maze Park</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -783,7 +783,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>한라산</t>
+          <t>삼무공원</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -793,7 +793,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>제주커피박물관 Baum</t>
+          <t>휴애리 자연생활공원</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -803,7 +803,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>위미2리 동백군락지</t>
+          <t>마마뜰</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -813,7 +813,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>캔디원</t>
+          <t>위미2리 동백군락지</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -823,7 +823,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>마마뜰</t>
+          <t>제주커피박물관 Baum</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -833,7 +833,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>휴애리 자연생활공원</t>
+          <t>캔디원</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -843,7 +843,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>삼무공원</t>
+          <t>서귀포 느영나영 게스트하우스</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -853,7 +853,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>서귀포 느영나영 게스트하우스</t>
+          <t>한라산</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -863,7 +863,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Jeju Aewol</t>
+          <t>용머리해안</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -873,7 +873,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>한라산 (漢拏山, Hallasan)</t>
+          <t>Jeju Aewol</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -883,7 +883,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>용머리해안</t>
+          <t>광치기해변</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -893,7 +893,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>광치기해변</t>
+          <t>한라산 (漢拏山, Hallasan)</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -923,7 +923,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>위미동백나무군락</t>
+          <t>옹포별장가든</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -933,7 +933,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>제주해남</t>
+          <t>성이시돌목장</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -943,7 +943,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>성이시돌목장</t>
+          <t>Jeju Island 제주특별자치도 济州道</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -953,7 +953,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Jeju Island 제주특별자치도 济州道</t>
+          <t>제주 송악산</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -963,7 +963,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>옹포별장가든</t>
+          <t>위미동백나무군락</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -973,7 +973,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>제주 송악산</t>
+          <t>제주해남</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -983,7 +983,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>제주 꿈꾸는고래 스쿠버&amp;게스트하우스</t>
+          <t>월정리카페콧수염</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -993,7 +993,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>제주어린왕자게스트하우스</t>
+          <t>산굼부리</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1013,7 +1013,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>牛岛 Udo Island 우도</t>
+          <t>에코랜드</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1023,7 +1023,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>카페한라산</t>
+          <t>牛岛 Udo Island 우도</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1033,7 +1033,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>에코랜드</t>
+          <t>제주 꿈꾸는고래 스쿠버&amp;게스트하우스</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1043,7 +1043,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>카페한라산</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1053,7 +1053,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>월정리카페콧수염</t>
+          <t>곽지해수욕장</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1063,7 +1063,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>산굼부리</t>
+          <t>제주어린왕자게스트하우스</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1073,7 +1073,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>퍼시픽랜드 - Pacific Land JEJU</t>
+          <t>우드노트</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1083,7 +1083,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>르페도라펜션</t>
+          <t>번개과학체험관</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1103,7 +1103,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>주상절리대</t>
+          <t>르페도라펜션</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1123,7 +1123,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>번개과학체험관</t>
+          <t>주상절리대</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1133,7 +1133,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>우아당</t>
+          <t>제주 협재 해수욕장</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1143,7 +1143,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>비자림</t>
+          <t>소세지가게</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1153,7 +1153,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>제주 협재 해수욕장</t>
+          <t>the cliff jeju - 더클리프 제주</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1173,7 +1173,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>the cliff jeju - 더클리프 제주</t>
+          <t>디저트쌀롱 톨</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1183,7 +1183,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>르토아베이스먼트</t>
+          <t>비자림</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1193,7 +1193,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>옹포리</t>
+          <t>르토아베이스먼트</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1203,7 +1203,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>디저트쌀롱 톨</t>
+          <t>옹포리</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1213,7 +1213,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>우드노트</t>
+          <t>우아당</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1223,7 +1223,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>친봉산장</t>
+          <t>퍼시픽랜드 - Pacific Land JEJU</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1233,7 +1233,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>소세지가게</t>
+          <t>친봉산장</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1243,7 +1243,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>해발1950m 한라산 백록담</t>
+          <t>The Shilla Jeju</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1253,7 +1253,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Jungmun Beach</t>
+          <t>인생밥집</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1263,7 +1263,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>The Shilla Jeju</t>
+          <t>서귀포항</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1273,7 +1273,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>몽상드 애월 (Mônsant)</t>
+          <t>Jungmun Beach</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1283,7 +1283,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>녹근로33</t>
+          <t>명월국민학교</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1293,7 +1293,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>오설록티뮤지엄</t>
+          <t>해발1950m 한라산 백록담</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1303,7 +1303,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>세화해수욕장</t>
+          <t>제주꿈꾸는고래</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1313,7 +1313,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>노라바</t>
+          <t>아날로그감귤체험</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1323,7 +1323,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>함덕487</t>
+          <t>녹근로33</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1333,7 +1333,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Sunnyside Beachclub Jeju</t>
+          <t>세화해수욕장</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1343,7 +1343,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>서귀포 매일올레시장</t>
+          <t>고집돌우럭-gozipfish</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1353,7 +1353,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>인생밥집</t>
+          <t>Sunnyside Beachclub Jeju</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1363,7 +1363,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>아날로그감귤체험</t>
+          <t>커피캄머</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1373,7 +1373,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>하도핑크</t>
+          <t>Hidden Cliff / 히든 클리프</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1383,7 +1383,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>아줄레주</t>
+          <t>수목원테마파크</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1393,7 +1393,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>제주동문재래시장</t>
+          <t>지금이순간카페</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1423,7 +1423,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>지금이순간카페</t>
+          <t>제주동문재래시장</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1433,7 +1433,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>고집돌우럭-gozipfish</t>
+          <t>Jeju International Airport</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1443,7 +1443,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Hidden Cliff / 히든 클리프</t>
+          <t>하도핑크</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1453,7 +1453,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>커피캄머</t>
+          <t>아줄레주</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1463,7 +1463,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>제주꿈꾸는고래</t>
+          <t>오설록티뮤지엄</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1473,7 +1473,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>서귀포항</t>
+          <t>노라바</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1483,7 +1483,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Jeju International Airport</t>
+          <t>서귀포 매일올레시장</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1493,7 +1493,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>명월국민학교</t>
+          <t>함덕487</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1503,7 +1503,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>수목원테마파크</t>
+          <t>몽상드 애월 (Mônsant)</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1513,7 +1513,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>안녕협재씨</t>
+          <t>명랑스낵</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1523,7 +1523,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>안녕김녕sea</t>
+          <t>Jeju horse Riding farm</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1533,7 +1533,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>제주도</t>
+          <t>Hidden Cliff Hotel &amp; Nature</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1543,7 +1543,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>제주도 해안도로</t>
+          <t>설심당본점</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1553,7 +1553,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>보름우스테이</t>
+          <t>춘심이네 본점</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1563,7 +1563,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>애월늘</t>
+          <t>양가형제</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1573,7 +1573,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>이익새양과점</t>
+          <t>대평리</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1583,7 +1583,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>쇠소깍</t>
+          <t>스윗슬로cafe</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1593,7 +1593,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>금능해변</t>
+          <t>애월늘</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1603,7 +1603,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>서귀포시 성산읍</t>
+          <t>안녕협재씨</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1613,7 +1613,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>춘심이네 본점</t>
+          <t>아름다운 제주도</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1623,7 +1623,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>제주 성산 신산포구자연산횟집 회포장</t>
+          <t>Jejudo</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1633,7 +1633,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>유동커피</t>
+          <t>다람쥐식탁</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1643,7 +1643,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>앙뚜아네트</t>
+          <t>제주 남원리</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1653,7 +1653,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>로얄</t>
+          <t>면차롱</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1663,7 +1663,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>제주도 세화해변</t>
+          <t>만월당</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1673,7 +1673,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Jeju horse Riding farm</t>
+          <t>제주국제공항</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1683,7 +1683,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>커피파인더coffeefinder제주시청</t>
+          <t>금능해변</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1693,7 +1693,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>제주 남원리</t>
+          <t>Busan, South Korea</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1703,7 +1703,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>한라수목원</t>
+          <t>안녕김녕sea</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1713,7 +1713,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>설심당본점</t>
+          <t>보름우스테이</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1723,7 +1723,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>커피파인더coffeefinder제주시청</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1733,7 +1733,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>법환동</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1743,7 +1743,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Jejudo</t>
+          <t>한라수목원</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1753,7 +1753,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>아름다운 제주도</t>
+          <t>제주 성산 신산포구자연산횟집 회포장</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1763,7 +1763,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>명랑스낵</t>
+          <t>탐라반상</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1773,7 +1773,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>제주여행</t>
+          <t>서귀포시 성산읍</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1783,7 +1783,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Hidden Cliff Hotel &amp; Nature</t>
+          <t>이익새양과점</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1793,7 +1793,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>탐라반상</t>
+          <t>Hamdeok Jeju</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1803,7 +1803,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>제주국제공항</t>
+          <t>앙뚜아네트</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1823,7 +1823,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>양가형제</t>
+          <t>쇠소깍</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1833,7 +1833,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>스윗슬로cafe</t>
+          <t>로얄</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1843,7 +1843,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Hamdeok Jeju</t>
+          <t>제주여행</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1853,7 +1853,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Busan, South Korea</t>
+          <t>제주 한라산 영실코스</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1863,7 +1863,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>새별오름 (Saebyul Orum)</t>
+          <t>법환동</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1873,7 +1873,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>다람쥐식탁</t>
+          <t>선녀와나무꾼</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1883,7 +1883,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>제주 한라산 영실코스</t>
+          <t>새별오름 (Saebyul Orum)</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1893,7 +1893,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>대평리</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1903,7 +1903,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>면차롱</t>
+          <t>제주도 세화해변</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1913,7 +1913,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>만월당</t>
+          <t>유동커피</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1923,7 +1923,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>선녀와나무꾼</t>
+          <t>제주도 해안도로</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1933,7 +1933,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>한동올레펜션</t>
+          <t>테디베어뮤지엄</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1943,7 +1943,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>오전열한시</t>
+          <t>붉은못허브팜 Cafe Redpond 애월본점</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1953,7 +1953,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>모뉴에트</t>
+          <t>이호테우해변</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1963,7 +1963,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>테디베어뮤지엄</t>
+          <t>Guzasien -구좌지앵</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1973,7 +1973,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>그러므로part.2</t>
+          <t>볼스카페</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1983,7 +1983,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Guzasien -구좌지앵</t>
+          <t>함덕호랑이</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1993,7 +1993,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>그초록</t>
+          <t>형제국수</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2003,7 +2003,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>카페주비 - JUBI</t>
+          <t>꽃기린 카페</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2013,7 +2013,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>JEJU앨리스</t>
+          <t>쌀다방</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2023,7 +2023,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Hyatt Regency, Jeju Island</t>
+          <t>바닐라파레트</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2033,7 +2033,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>볼스카페</t>
+          <t>Ecoland Theme Park Forest Train黃花小火車</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2043,7 +2043,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>군산오름</t>
+          <t>부두식당</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2053,7 +2053,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>성읍민속마을</t>
+          <t>윗세오름(해발 1700M)</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2063,7 +2063,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>쿠오모제주</t>
+          <t>카페주비 - JUBI</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2073,7 +2073,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>로맨틱무브</t>
+          <t>토스카나호텔</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2083,7 +2083,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>하늘아래 게스트하우스</t>
+          <t>사라봉근처</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2093,7 +2093,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>이음</t>
+          <t>박물관이살아있다</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2103,7 +2103,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>서귀포 까망돼지</t>
+          <t>제주마방목지</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2113,7 +2113,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>하도리1091</t>
+          <t>블레블랑제리 Ble' Boulangerie</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2123,7 +2123,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>용연구름다리</t>
+          <t>목장카페 드르쿰다</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2133,7 +2133,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>중문색달해변 (Jungmun Saekdal Beach)</t>
+          <t>Osulloc Tea Museum</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2143,7 +2143,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>사라봉근처</t>
+          <t>제주도 한경면</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2153,7 +2153,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>구좌읍 평대리</t>
+          <t>천왕사 (天王寺)</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2163,7 +2163,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>뉴저지카페</t>
+          <t>용연구름다리</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2173,7 +2173,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>박물관이살아있다</t>
+          <t>제주시외버스터미널</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2183,7 +2183,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>테지움 제주</t>
+          <t>대정읍</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2193,7 +2193,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Hotel NANTA 호텔 난타</t>
+          <t>모슬 포항</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2203,7 +2203,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>족황상제</t>
+          <t>호텔 몽듀</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2213,7 +2213,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>지오반니</t>
+          <t>카페루핀</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2223,7 +2223,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>푸른섬 제주도</t>
+          <t>다다의작은공간</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2233,7 +2233,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>바닐라파레트</t>
+          <t>서귀포 까망돼지</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2243,7 +2243,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>블리스찬</t>
+          <t>하늘아래 게스트하우스</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2253,7 +2253,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>중문 덤장</t>
+          <t>판포리</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2263,7 +2263,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>토스카나호텔</t>
+          <t>중문 덤장</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2273,7 +2273,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>붉은못허브팜 Cafe Redpond 애월본점</t>
+          <t>Cafe148</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2283,7 +2283,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>이호테우해변</t>
+          <t>제주 조류공원 화조원</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2293,7 +2293,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>김녕회관</t>
+          <t>그리울땐 제주</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2303,7 +2303,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>우도</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2313,7 +2313,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>하얏트 리젠시 제주ㅣHyatt Regency Jeju</t>
+          <t>Namwon Seogwipo Jeju,South korea</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2323,7 +2323,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>제주도 전주횟집</t>
+          <t>제주김만복</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2333,7 +2333,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>붉은제주</t>
+          <t>제주 이호해수욕장</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2343,7 +2343,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Teddy Bear Museum - 제주 테디베어뮤지엄</t>
+          <t>평대우유차</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2353,7 +2353,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>앤트러사이트 제주 한림점</t>
+          <t>스튜디오 쿠나</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2363,7 +2363,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>다다의작은공간</t>
+          <t>하얏트 리젠시 제주ㅣHyatt Regency Jeju</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2373,7 +2373,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>제주 휴애리</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2383,7 +2383,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>판포리</t>
+          <t>천지연폭포 (Cheonjiyeon Waterfall)</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2393,7 +2393,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Namwon Seogwipo Jeju,South korea</t>
+          <t>제주 서귀포 그릴 데미그라스</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2403,7 +2403,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>플레이스 캠프 제주</t>
+          <t>남원읍 위미리 귤밭</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2413,7 +2413,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>형제국수</t>
+          <t>Teddy Bear Museum - 제주 테디베어뮤지엄</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2423,7 +2423,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>한림항</t>
+          <t>플레이스 캠프 제주</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2433,7 +2433,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>말젯문</t>
+          <t>제주서커스월드공연장</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2443,7 +2443,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>황우지해안</t>
+          <t>천제연폭포</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2453,7 +2453,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>소보리당로 222</t>
+          <t>푸른섬 제주도</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2463,7 +2463,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>꽃기린 카페</t>
+          <t>Jeju_Gimnyeong_Maze_Park</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2473,7 +2473,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>핏제리아마노</t>
+          <t>동굴카페 다희연(Cafe Daheeyeon in the Cave)</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2483,7 +2483,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Ulsan, South Korea</t>
+          <t>신창풍차해안도로</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2493,7 +2493,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>제주도 월정리</t>
+          <t>라온더마파크</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2503,7 +2503,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>천왕사 (天王寺)</t>
+          <t>토끼썸</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2513,7 +2513,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>쌀다방</t>
+          <t>한림항</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2523,7 +2523,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>제주시외버스터미널</t>
+          <t>성읍민속마을</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2533,7 +2533,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>부두식당</t>
+          <t>제주도 월정리</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2543,7 +2543,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Longlive</t>
+          <t>센트로</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2553,7 +2553,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>제주서커스월드공연장</t>
+          <t>Vadada 바다다</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2563,7 +2563,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>아쿠아 플라넷 제주 (Aqua Planet JEJU)</t>
+          <t>Hotel Alfonso XIII, a Luxury Collection Hotel, Seville</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2573,7 +2573,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Antoinette</t>
+          <t>남원읍 신례리</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2583,7 +2583,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>신창풍차해안도로</t>
+          <t>Antoinette</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2593,7 +2593,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>토끼썸</t>
+          <t>비브레이브 커피 로스터즈</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2603,7 +2603,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>센트로</t>
+          <t>아쿠아 플라넷 제주 (Aqua Planet JEJU)</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2613,7 +2613,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>비브레이브 커피 로스터즈</t>
+          <t>갈중이</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2623,7 +2623,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>카페루핀</t>
+          <t>따라비오름</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2633,7 +2633,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Jeju_Gimnyeong_Maze_Park</t>
+          <t>김녕회관</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2643,7 +2643,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>라온더마파크</t>
+          <t>훈이네고사리육개장</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2653,7 +2653,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>남원읍 위미리 귤밭</t>
+          <t>선흘리 동백동산</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2663,7 +2663,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>제주 서귀포 그릴 데미그라스</t>
+          <t>한림칼국수</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2673,7 +2673,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>평대우유차</t>
+          <t>지오반니</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2683,7 +2683,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Cafe148</t>
+          <t>핏제리아마노</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2693,7 +2693,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>제주허브동산</t>
+          <t>블리스찬</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2703,7 +2703,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>제주 이호해수욕장</t>
+          <t>로맨틱무브</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2713,7 +2713,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>함덕호랑이</t>
+          <t>제주 구좌읍 세화리</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2723,7 +2723,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>아부오름</t>
+          <t>제주돌마을공원</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2733,7 +2733,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>제주 산굼부리</t>
+          <t>대우정</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2743,7 +2743,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Vadada 바다다</t>
+          <t>제주도 천지연 폭포</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2753,7 +2753,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>동굴카페 다희연(Cafe Daheeyeon in the Cave)</t>
+          <t>제주도 전주횟집</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2763,7 +2763,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>따라비오름</t>
+          <t>말젯문</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2773,7 +2773,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>갈중이</t>
+          <t>소보리당로 222</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2783,7 +2783,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>대우정</t>
+          <t>하도리1091</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2793,7 +2793,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>이정의댁</t>
+          <t>오전열한시</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2803,7 +2803,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Meal Table Garden</t>
+          <t>JEJU앨리스</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2813,7 +2813,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>한림칼국수</t>
+          <t>뉴저지카페</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2823,7 +2823,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>제주김만복</t>
+          <t>쿠오모제주</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2833,7 +2833,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>제주마방목지</t>
+          <t>앤트러사이트 제주 한림점</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2843,7 +2843,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>애월더선셋</t>
+          <t>그초록</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2853,7 +2853,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>천지연폭포</t>
+          <t>Hamdoek Beach, Jeju Island</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2863,7 +2863,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>목장카페 드르쿰다</t>
+          <t>済州島 - チェジュ島</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2873,7 +2873,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>대정읍</t>
+          <t>테쉬폰</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2883,7 +2883,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>그리울땐 제주</t>
+          <t>초밥충전</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2893,7 +2893,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>훈이네고사리육개장</t>
+          <t>밥의정석</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2903,7 +2903,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>블레블랑제리 Ble' Boulangerie</t>
+          <t>아부오름</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2913,7 +2913,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>제주 윗세오름</t>
+          <t>Daegu, South Korea</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2923,7 +2923,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>제주 구좌읍 세화리</t>
+          <t>Meal Table Garden</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2933,7 +2933,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Hotel Alfonso XIII, a Luxury Collection Hotel, Seville</t>
+          <t>제주허브동산</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2943,7 +2943,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>우동가게</t>
+          <t>족황상제</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2953,7 +2953,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>천제연폭포</t>
+          <t>Ulsan, South Korea</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2963,7 +2963,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Daegu, South Korea</t>
+          <t>평대리 해변</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2973,7 +2973,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>호텔 몽듀</t>
+          <t>올레7코스</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2983,7 +2983,7 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>제주 휴애리</t>
+          <t>테지움 제주</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2993,7 +2993,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>윗세오름(해발 1700M)</t>
+          <t>이정의댁</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3003,7 +3003,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>LOTTE Hotel Jeju 롯데호텔제주</t>
+          <t>제주 윗세오름</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3013,7 +3013,7 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>선흘리 동백동산</t>
+          <t>황우지해안</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3023,7 +3023,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>켄싱턴 제주호텔</t>
+          <t>그러므로part.2</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3033,7 +3033,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>모슬 포항</t>
+          <t>군산오름</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3043,7 +3043,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Osulloc Tea Museum</t>
+          <t>구좌읍 평대리</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3053,7 +3053,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>제주도 한경면</t>
+          <t>용두암</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3063,7 +3063,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>제주 조류공원 화조원</t>
+          <t>Harmduck Beach in Jeju Island</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3073,7 +3073,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>남원읍 신례리</t>
+          <t>로타리과자점</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3083,7 +3083,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>평대리 해변</t>
+          <t>한동올레펜션</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3093,7 +3093,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Harmduck Beach in Jeju Island</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3103,7 +3103,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>올레7코스</t>
+          <t>애월더선셋</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3113,7 +3113,7 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Ecoland Theme Park Forest Train黃花小火車</t>
+          <t>우동가게</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3123,7 +3123,7 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>테쉬폰</t>
+          <t>Longlive</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3133,7 +3133,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>천지연폭포 (Cheonjiyeon Waterfall)</t>
+          <t>Hotel NANTA 호텔 난타</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3143,7 +3143,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>밥의정석</t>
+          <t>모뉴에트</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3163,7 +3163,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>제주도 천지연 폭포</t>
+          <t>천지연폭포</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3173,7 +3173,7 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>제주돌마을공원</t>
+          <t>붉은제주</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3183,7 +3183,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Hamdoek Beach, Jeju Island</t>
+          <t>켄싱턴 제주호텔</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3193,7 +3193,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>초밥충전</t>
+          <t>중문색달해변 (Jungmun Saekdal Beach)</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3203,7 +3203,7 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>용두암</t>
+          <t>제주 산굼부리</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3213,7 +3213,7 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>済州島 - チェジュ島</t>
+          <t>Hyatt Regency, Jeju Island</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3223,7 +3223,7 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>스튜디오 쿠나</t>
+          <t>이음</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3233,7 +3233,7 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>로타리과자점</t>
+          <t>LOTTE Hotel Jeju 롯데호텔제주</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3243,7 +3243,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Jeju Starbucks 용담dt</t>
+          <t>제주인의밥상</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3253,7 +3253,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>수망일기</t>
+          <t>금능반지하</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3263,7 +3263,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>사우스바운더 Southbounder Brewery</t>
+          <t>제주시 화북동</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3273,7 +3273,7 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>올레 6코스 (Olle Route 6)</t>
+          <t>몽구네민박</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3283,7 +3283,7 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>ECOLAND theme park</t>
+          <t>제주거울미로 이상한나라의앨리스</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3293,7 +3293,7 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>제주김만복본점</t>
+          <t>Arc de Triomphe</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3303,7 +3303,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>켄싱턴리조트 서귀포</t>
+          <t>피규어 뮤지엄 제주  Figure Museum Jeju</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3313,7 +3313,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>고불락 식당</t>
+          <t>제주시농협하나로마트</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3323,7 +3323,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>한담해안산책로</t>
+          <t>아날로그감귤밭</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3333,7 +3333,7 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>남원큰엉해안경승지</t>
+          <t>덕인당 소락</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3343,7 +3343,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>팔도수산식당</t>
+          <t>황궁쟁반짜장</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3353,7 +3353,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>제스토리, 바이제주, 제주감성소품</t>
+          <t>Hallasan</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3363,7 +3363,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>제주 성산읍</t>
+          <t>제주 이호테우 해변</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3373,7 +3373,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>BUTTON STAY 단추스테이 게스트하우스</t>
+          <t>Cafe delmundo</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3383,7 +3383,7 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Oedolgae Jeju</t>
+          <t>지붕 위 제주바다</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3393,7 +3393,7 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>국수의 전설</t>
+          <t>노형로터리</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3403,7 +3403,7 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>짱구분식</t>
+          <t>무수천계곡</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3413,7 +3413,7 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Howard Johnson Jeju Yeondong Hotel - 하워드존슨 제주 연동 호텔</t>
+          <t>베케</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3423,7 +3423,7 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>제주조천스위스마을</t>
+          <t>금바리</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3433,7 +3433,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>카페두가시</t>
+          <t>돈물국수</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3443,7 +3443,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>나도섬이다</t>
+          <t>인사리</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3453,7 +3453,7 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>시리우스 호텔</t>
+          <t>제주시청</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3463,7 +3463,7 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>신풍목장</t>
+          <t>꽃돼지연탄구이</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3473,7 +3473,7 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Bronx, New York</t>
+          <t>한복입는 선흘집</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3483,7 +3483,7 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>TheFirst70 Hotel</t>
+          <t>제주맑음</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3493,7 +3493,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>타쿠마 - Takuma</t>
+          <t>스테이 비갠오후</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3503,7 +3503,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>비스트로낭</t>
+          <t>제주 반디앤로제이 펜션 &amp; 플라워브런치카페</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3513,7 +3513,7 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>호박다방</t>
+          <t>돈테일러익스프레</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3523,7 +3523,7 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Salon De 소자38</t>
+          <t>종달리 해변</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3533,7 +3533,7 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>보엠 - Bohème</t>
+          <t>외도동</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3543,7 +3543,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>제주 신재생에너지 홍보관</t>
+          <t>메이즈랜드</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3553,7 +3553,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Bongcheon-dong</t>
+          <t>표선 해비치해수욕장</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3563,7 +3563,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>한림 바당길</t>
+          <t>서귀포 법환포구</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3573,7 +3573,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>광안리 해수욕장 - 廣安里海水浴場 GwangalliBeach, Busan, South Korea</t>
+          <t>돈사촌</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3583,7 +3583,7 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>판포포구</t>
+          <t>연화키친</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3593,7 +3593,7 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>지금여기</t>
+          <t>스테이굿무드</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3603,7 +3603,7 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>삼공주회센터</t>
+          <t>푸릇프릍</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3613,7 +3613,7 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>제주엠리조트</t>
+          <t>월정곰닭</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3623,7 +3623,7 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>702키친</t>
+          <t>오샹띠</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3633,7 +3633,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>명진전복</t>
+          <t>북촌플레이스</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3643,7 +3643,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>꽃밥</t>
+          <t>서귀포향토오일장</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3653,7 +3653,7 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>순옥이네명가</t>
+          <t>1158 Cafe</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3663,7 +3663,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>빌라드아토</t>
+          <t>큰엉전망대쉼터</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3673,7 +3673,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>충남 대천 해수욕장 에서</t>
+          <t>동박낭</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3683,7 +3683,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>수제홍과일모찌하귀점</t>
+          <t>제주프레임스파빌</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3693,7 +3693,7 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>듀블라썸</t>
+          <t>사우스바운더 Southbounder Brewery</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3703,7 +3703,7 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>성산갯마을식당</t>
+          <t>김녕 앞바다</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3713,7 +3713,7 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>카페바띠</t>
+          <t>Segovia, Spain</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3723,7 +3723,7 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>라비에 와인비스트로</t>
+          <t>구좌상회작업실</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3733,7 +3733,7 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>몽땅카페</t>
+          <t>가시아방국수</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3743,7 +3743,7 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>사이카레</t>
+          <t>오드랑베이커리</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3753,7 +3753,7 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Uncommon Table</t>
+          <t>차귀도</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3763,7 +3763,7 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>이게밥도둑</t>
+          <t>환상의 섬 Jeju Island</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3773,7 +3773,7 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>쉐프부부</t>
+          <t>건축카페 - 섶섬이보이는</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3783,7 +3783,7 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>낙지로</t>
+          <t>바보까페</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3793,7 +3793,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>숨비아일랜드</t>
+          <t>지붕위제주바다</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3803,7 +3803,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Jamae Guksu</t>
+          <t>도두항</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3813,7 +3813,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>홍키호테</t>
+          <t>제주시도두항</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3823,7 +3823,7 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>젠하이드어웨이</t>
+          <t>렛츠런팜제주</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3833,7 +3833,7 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>헤이브라더</t>
+          <t>우도 하고수동해수욕장</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3843,7 +3843,7 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>카페모리&amp;베이커스트리트</t>
+          <t>도토리키친</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3853,7 +3853,7 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Cultured</t>
+          <t>Cafe기억해</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3863,7 +3863,7 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>빌리엔젤 제주노형점</t>
+          <t>The Retrieve</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3873,7 +3873,7 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>카이로스 제주</t>
+          <t>사계여행</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3883,7 +3883,7 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>맛있는 제주</t>
+          <t>함덕 다래향</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3893,7 +3893,7 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>여름문구사</t>
+          <t>스타벅스 제주성산dt점</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3903,7 +3903,7 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>객의하우스</t>
+          <t>까망고띠</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3913,7 +3913,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>섭지코지 등대</t>
+          <t>Maison GLAD Jeju - 메종글래드 제주</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3923,7 +3923,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>더아트스테이호텔-The Artstay Hotel</t>
+          <t>호텔 아이엠</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3933,7 +3933,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>MBC</t>
+          <t>해심가든</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3943,7 +3943,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>서촌제 (서울촌놈인제주)</t>
+          <t>내콩가</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3953,7 +3953,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>오렌지블루스</t>
+          <t>모이세해장국</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3963,7 +3963,7 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>제주도 휘닉스아일랜드</t>
+          <t>듀블라썸</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3973,7 +3973,7 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>순덕이네해산물장터</t>
+          <t>Jamae Guksu</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3983,7 +3983,7 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>시루애월카페</t>
+          <t>홍키호테</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3993,7 +3993,7 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>잔향</t>
+          <t>젠하이드어웨이</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4003,7 +4003,7 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>세종시</t>
+          <t>방주교회</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4013,7 +4013,7 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>꽃이다카페</t>
+          <t>헤이브라더</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4023,7 +4023,7 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Kairos jeju</t>
+          <t>카페모리&amp;베이커스트리트</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4033,7 +4033,7 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Salon de Lavant</t>
+          <t>Enough, 이너프</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4043,7 +4043,7 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>방주교회</t>
+          <t>보엠 - Bohème</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4053,7 +4053,7 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>메이즈랜드</t>
+          <t>수제홍과일모찌하귀점</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4063,7 +4063,7 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>꽃돼지연탄구이</t>
+          <t>충남 대천 해수욕장 에서</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4073,7 +4073,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>외도동</t>
+          <t>빌라드아토</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4083,7 +4083,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>제주 이호테우 해변</t>
+          <t>비스트로낭</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4093,7 +4093,7 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>뽕끄랑</t>
+          <t>호박다방</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4103,7 +4103,7 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>빨간머리몽게스트하우스</t>
+          <t>Salon De 소자38</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4113,7 +4113,7 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>CAMPHORTREE Hotel &amp; Resort</t>
+          <t>자갈자갈</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4123,7 +4123,7 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>공업탑</t>
+          <t>숨비아일랜드</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4133,7 +4133,7 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>연정식당</t>
+          <t>낙지로</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4143,7 +4143,7 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>삼보식당</t>
+          <t>쉐프부부</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4153,7 +4153,7 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>고로케야</t>
+          <t>이게밥도둑</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4163,7 +4163,7 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Shilla Stay</t>
+          <t>Salon de Lavant</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4173,7 +4173,7 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>주점부리</t>
+          <t>Uncommon Table</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4183,7 +4183,7 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>내콩가</t>
+          <t>봉개동</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4193,7 +4193,7 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>스테이굿무드</t>
+          <t>사이카레</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4203,7 +4203,7 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>해심가든</t>
+          <t>몽땅카페</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4213,7 +4213,7 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>수카사</t>
+          <t>라비에 와인비스트로</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4223,7 +4223,7 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>제주 월령선인장 군락지</t>
+          <t>카페바띠</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4233,7 +4233,7 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>The Retrieve</t>
+          <t>성산갯마을식당</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4243,7 +4243,7 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>차귀도</t>
+          <t>오조해녀의집</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4253,7 +4253,7 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Gimpo International Airport Station</t>
+          <t>제주시 조천읍 와선로 206</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4263,7 +4263,7 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>환상의 섬 Jeju Island</t>
+          <t>쭈니창고</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4273,7 +4273,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>신천목장</t>
+          <t>하례리 망장포구</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4283,7 +4283,7 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>전주콩나물국밥</t>
+          <t>사는맛 먹는맛</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4293,7 +4293,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>몽키비치</t>
+          <t>제주 신재생에너지 홍보관</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4303,7 +4303,7 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>박물관은 살아있다 제주 중문</t>
+          <t>주점부리</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4313,7 +4313,7 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>네이처트레일</t>
+          <t>CAMPHORTREE Hotel &amp; Resort</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4323,7 +4323,7 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>제주카페 스르륵</t>
+          <t>판포포구</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4333,7 +4333,7 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>나주혁신도시</t>
+          <t>빌리엔젤 제주노형점</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4343,7 +4343,7 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>playce</t>
+          <t>공천포 식당</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4353,7 +4353,7 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>하늘고래</t>
+          <t>올레 6코스 (Olle Route 6)</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4363,7 +4363,7 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>섭지코지 (Seopjikoji)</t>
+          <t>뽕끄랑</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4373,7 +4373,7 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>효돈마을</t>
+          <t>빨간머리몽게스트하우스</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4383,7 +4383,7 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>칠돈가</t>
+          <t>공업탑</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4393,7 +4393,7 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>제주좋은날</t>
+          <t>Bongcheon-dong</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4403,7 +4403,7 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>제주도 서귀포</t>
+          <t>연정식당</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4413,7 +4413,7 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>호끌락80번지</t>
+          <t>쉼표</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4423,7 +4423,7 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>벵디1967</t>
+          <t>삼보식당</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4433,7 +4433,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>우도 비양도</t>
+          <t>제주돈아</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4443,7 +4443,7 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>카페록록 Loklok</t>
+          <t>고로케야</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4453,7 +4453,7 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>비싸이드엠,beside-M</t>
+          <t>Shilla Stay</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4463,7 +4463,7 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>한화아쿠아넷</t>
+          <t>Cultured</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4473,7 +4473,7 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>고근산정상</t>
+          <t>순옥이네명가</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4483,7 +4483,7 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>서건도</t>
+          <t>꽃밥</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4493,7 +4493,7 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>애월해안도로</t>
+          <t>명진전복</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4503,7 +4503,7 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Volskafé</t>
+          <t>702키친</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4513,7 +4513,7 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>제주도청</t>
+          <t>제주한라수목원♥</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4523,7 +4523,7 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Bonte museum</t>
+          <t>제주엠리조트</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4533,7 +4533,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>제주 팜스빌리지</t>
+          <t>삼공주회센터</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4543,7 +4543,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>김녕장</t>
+          <t>지금여기</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4553,7 +4553,7 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>서귀포 워터월드</t>
+          <t>함덕 Fishya</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4563,7 +4563,7 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>오설록</t>
+          <t>피규어뮤지엄제주</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4573,7 +4573,7 @@
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>상효원 수목원</t>
+          <t>벵디</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4583,7 +4583,7 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>투썸플레이스 제주애월한담점</t>
+          <t>광안리 해수욕장 - 廣安里海水浴場 GwangalliBeach, Busan, South Korea</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4593,7 +4593,7 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>금악리 제주힐링리조트</t>
+          <t>한동리 화수목</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4603,7 +4603,7 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>바라크라</t>
+          <t>타쿠마 - Takuma</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4613,7 +4613,7 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>유민 아르누보 콜렉션</t>
+          <t>Cafe카페인</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4623,7 +4623,7 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>안녕, 육지사람</t>
+          <t>한림 바당길</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4633,7 +4633,7 @@
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>제주롯데시네마</t>
+          <t>제주돌문화공원</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4643,7 +4643,7 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Soror</t>
+          <t>협재술시</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4653,7 +4653,7 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>신창해안도로</t>
+          <t>채점석빵집</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4663,7 +4663,7 @@
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>다이브스테이</t>
+          <t>환상숲곶자왈공원</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4673,7 +4673,7 @@
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>저녁정원</t>
+          <t>켄싱턴리조트 서귀포</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4683,7 +4683,7 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>제주초가집 곱들락</t>
+          <t>올레길 5코스</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4693,7 +4693,7 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>로컬크랩</t>
+          <t>닭머르</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4703,7 +4703,7 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>거멍국수</t>
+          <t>ECOLAND theme park</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4713,7 +4713,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>반디앤로제이</t>
+          <t>미나마라</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4723,7 +4723,7 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>스물다섯</t>
+          <t>성산수구레국밥</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4733,7 +4733,7 @@
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>그계절</t>
+          <t>탑동광장편의점</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4743,7 +4743,7 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>CAFE E.P.L</t>
+          <t>돼지촌</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4753,7 +4753,7 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Cafe가호</t>
+          <t>새별오름 정상</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4763,7 +4763,7 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>카페소금</t>
+          <t>제주웰컴센터</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4773,7 +4773,7 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>제주도 올레길 6코스 이중섭거리</t>
+          <t>제주오리엔탈호텔</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4783,7 +4783,7 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>헤이미쉬제주_제주독채펜션</t>
+          <t>서머셋 제주신화월드</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4793,7 +4793,7 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>비양도 해녀촌</t>
+          <t>아름다운제주여행</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4803,7 +4803,7 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>카페라능</t>
+          <t>노리매</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4813,7 +4813,7 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>헤밍웨이 하우스</t>
+          <t>탑동해변공연장</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4823,7 +4823,7 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>대구국제공항</t>
+          <t>휘슬락호텔</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4833,7 +4833,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>이중섭 미술관</t>
+          <t>제주중앙로상점가</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4843,7 +4843,7 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>오운커피</t>
+          <t>제주세계자연유산센터</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4853,7 +4853,7 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>타시텔레</t>
+          <t>더스파</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4863,7 +4863,7 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>사락</t>
+          <t>Sensō-ji</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4873,7 +4873,7 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>모던하우스 제주점</t>
+          <t>에코랜드 라벤다앤그린티로즈가든역</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4883,7 +4883,7 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>카페하도섬/엠스테이펜션</t>
+          <t>Jeju National University</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4893,7 +4893,7 @@
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>돈사돈중문점</t>
+          <t>Jeju Island, South Korea - 제주도</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -4903,7 +4903,7 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>포근한우리집</t>
+          <t>웃뜨르</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4913,7 +4913,7 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>제주항공</t>
+          <t>가배</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4923,7 +4923,7 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>한성식당</t>
+          <t>돈사돈</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4933,7 +4933,7 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>호연스테이</t>
+          <t>대굴대굴굴구이</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4943,7 +4943,7 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>조천읍 북촌리</t>
+          <t>용담해안도로</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4953,7 +4953,7 @@
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>인공위성 제주</t>
+          <t>정방폭포가 보이는 암벽위</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4963,7 +4963,7 @@
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>제주도립미술관</t>
+          <t>카페2472</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4973,7 +4973,7 @@
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>협재</t>
+          <t>쪼끌락 cafe</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4983,7 +4983,7 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>제주인에이에이</t>
+          <t>시리우스 호텔</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4993,7 +4993,7 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>제주도 표선</t>
+          <t>국수의 전설</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5003,7 +5003,7 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>네이처캔바스</t>
+          <t>동한두기</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5013,7 +5013,7 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>머스태쉬커피/머스태쉬하우스</t>
+          <t>산방산</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5023,7 +5023,7 @@
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>자매국수 노형점</t>
+          <t>Suweolbong Trekking</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5033,7 +5033,7 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>성산포</t>
+          <t>용두암해변</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5043,7 +5043,7 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>서귀포 칼호텔 (KAL Hotel Seogwipo)</t>
+          <t>협제 혜변</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5053,7 +5053,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>73st</t>
+          <t>성산일출봉</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5063,7 +5063,7 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>썬앤문리조트</t>
+          <t>남원큰엉해안경승지</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5073,7 +5073,7 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>하도해변</t>
+          <t>제주아리아</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5083,7 +5083,7 @@
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>컴피하우스</t>
+          <t>한림공원 Hallimpark</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5093,7 +5093,7 @@
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>송당리 풍림다방</t>
+          <t>Saturdayisland</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5103,7 +5103,7 @@
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>중문관광단지 (Jungmun Tourism Complex)</t>
+          <t>서귀포 이마트</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5113,7 +5113,7 @@
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>Maxim 모카다방</t>
+          <t>Cafe Koomda</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5123,7 +5123,7 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>외돌개</t>
+          <t>Seoul, Korea</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5133,7 +5133,7 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>까망고띠</t>
+          <t>한라생태숲</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5143,7 +5143,7 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>제주도 하늘 위</t>
+          <t>제주아트리움"비밀의그림자"공연</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5153,7 +5153,7 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>시월의리브라</t>
+          <t>관덕정</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5163,7 +5163,7 @@
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>카페닐스</t>
+          <t>알뜨르프로젝트2018</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5173,7 +5173,7 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>평화통일불사리탑사</t>
+          <t>엉또폭포</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5183,7 +5183,7 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>담앤루리조트</t>
+          <t>유리의성과마법의숲</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5193,7 +5193,7 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>한라산 정상 해발 1,950m</t>
+          <t>동문로터리</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5203,7 +5203,7 @@
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>우리두리게스트하우스</t>
+          <t>보목</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5213,7 +5213,7 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>목수금토일</t>
+          <t>Jungle book by Alice</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5223,7 +5223,7 @@
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>제주시 조천읍 와선로 206</t>
+          <t>제주 나인브릿지 CC</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5233,7 +5233,7 @@
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>Hwasun</t>
+          <t>Dammann Frères_다만프레르_제주신화점</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5243,7 +5243,7 @@
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>에코랜드테마파크</t>
+          <t>함덕해변</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5253,7 +5253,7 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>달사막</t>
+          <t>제주도 부영리조트</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5263,7 +5263,7 @@
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>블루라군다이브-bluelagoondive</t>
+          <t>돌마을공원</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5273,7 +5273,7 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>절물 자연 휴양림</t>
+          <t>화순금모래해변</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5283,7 +5283,7 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>Tj Guesthouse</t>
+          <t>제주신라면세점</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5293,7 +5293,7 @@
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>Gimpo International Airport - 金浦国际机场 - 김포공항</t>
+          <t>니모메빈티지라운지</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5303,7 +5303,7 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>카페어떤오후</t>
+          <t>나인브릿지</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5313,7 +5313,7 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>협재 수우동</t>
+          <t>월정스캔들</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5323,7 +5323,7 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>M-STAY / 엠스테이</t>
+          <t>노형 수목원가는길</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5333,7 +5333,7 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>원더먼트제주</t>
+          <t>저지예술인마을</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5343,7 +5343,7 @@
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>게으른날</t>
+          <t>기원뚝배기</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5353,7 +5353,7 @@
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>Ocean Suites Jeju Hotel</t>
+          <t>산방산 (Sanbangsan)</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5363,7 +5363,7 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>제주맑음</t>
+          <t>Ocean Suite Jeju Hotel (오션스위츠제주호텔)</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5373,7 +5373,7 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>함덕 다래향</t>
+          <t>제주 생각하는 정원</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5383,7 +5383,7 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>돈사촌</t>
+          <t>연북정</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5393,7 +5393,7 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>지붕 위 제주바다</t>
+          <t>제주대학교 교양강의동</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5403,7 +5403,7 @@
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Cafe delmundo</t>
+          <t>Shimo-kitazawa Station</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -5413,7 +5413,7 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>금능반지하</t>
+          <t>신풍목장</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5423,7 +5423,7 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>몽구네민박</t>
+          <t>고불락 식당</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5433,7 +5433,7 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>베케</t>
+          <t>비양도</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5443,7 +5443,7 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>제주시청</t>
+          <t>제주도가는 비행기 안</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5453,7 +5453,7 @@
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>서귀포 법환포구</t>
+          <t>제주 천제연폭포</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5463,7 +5463,7 @@
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>표선 해비치해수욕장</t>
+          <t>우도 (Udo / 牛島)</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5473,7 +5473,7 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>스테이 비갠오후</t>
+          <t>난드르바당</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -5483,7 +5483,7 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>제주 반디앤로제이 펜션 &amp; 플라워브런치카페</t>
+          <t>Teseum</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5493,7 +5493,7 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>종달리 해변</t>
+          <t>카이로스 제주</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -5503,7 +5503,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>제주돌문화공원</t>
+          <t>다랑쉬오름</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -5513,7 +5513,7 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>피규어뮤지엄제주</t>
+          <t>비자림 (Bija Forest, 榧子林)</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -5523,7 +5523,7 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>한동리 화수목</t>
+          <t>제주함덕 해수욕장</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -5533,7 +5533,7 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>Enough, 이너프</t>
+          <t>GD Cafe</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5543,7 +5543,7 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>함덕 Fishya</t>
+          <t>TheFirst70 Hotel</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5553,7 +5553,7 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>La Tortuga</t>
+          <t>BUTTON STAY 단추스테이 게스트하우스</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5563,7 +5563,7 @@
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>비긴어게인펜션</t>
+          <t>델문도 제주 카페 Cafe Delmoondo</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5573,7 +5573,7 @@
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>바램목장&amp;카페</t>
+          <t>김녕 성세기 해변</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -5583,7 +5583,7 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>하례정원</t>
+          <t>자연뜨락</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5593,7 +5593,7 @@
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>Seoul, South Korea</t>
+          <t>Oedolgae Jeju</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -5603,7 +5603,7 @@
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>Ramada Plaza Jeju</t>
+          <t>제주도 더마파크</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5613,7 +5613,7 @@
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>골목카페 옥수</t>
+          <t>Bronx, New York</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5623,7 +5623,7 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>해물뚝배기전문 재암식당</t>
+          <t>요요무문</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5633,7 +5633,7 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>블루마린하우스</t>
+          <t>제주도 하도리</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5643,7 +5643,7 @@
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>고기마씸</t>
+          <t>서양차관</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -5653,7 +5653,7 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>협재술시</t>
+          <t>수망일기</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5663,7 +5663,7 @@
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>Saeyeon Bridge, Jeju Island</t>
+          <t>1342틈</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -5673,7 +5673,7 @@
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>테라로사-이사랑</t>
+          <t>Marevo Resort / 마레보 리조트</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -5683,7 +5683,7 @@
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>신설오름</t>
+          <t>제주조천스위스마을</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -5693,7 +5693,7 @@
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>구좌상회</t>
+          <t>짱구분식</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -5703,7 +5703,7 @@
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>깡촌흑돼지</t>
+          <t>아도록</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5713,7 +5713,7 @@
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>개똥이네 동물원</t>
+          <t>Paju</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -5723,7 +5723,7 @@
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>제주도 용두암</t>
+          <t>미도리</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -5733,7 +5733,7 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>중문 마린파크 퍼시픽랜드</t>
+          <t>고성리</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5743,7 +5743,7 @@
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>Oslob, Cebu</t>
+          <t>더본호텔</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5753,7 +5753,7 @@
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>十五夜 siboya 십오야</t>
+          <t>Málaga, Spain</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -5763,7 +5763,7 @@
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>폴레폴레게스트하우스 -Polepole Guesthouse in Jeju</t>
+          <t>화북1동</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5773,7 +5773,7 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>구엄리 돌염전</t>
+          <t>제스토리, 바이제주, 제주감성소품</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5783,7 +5783,7 @@
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>에코그린리조트</t>
+          <t>Halim jeju korea Selatan</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -5793,7 +5793,7 @@
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>Seosan</t>
+          <t>귀덕1리</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -5803,7 +5803,7 @@
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>성산일출봉 코앞 쉼터</t>
+          <t>Yacht Tour Shangri-La</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -5813,7 +5813,7 @@
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>산방굴사 (Sanbanggulsa Temple 山房窟寺)</t>
+          <t>관음사</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -5823,7 +5823,7 @@
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>종달스토리 게스트하우스</t>
+          <t>제주비치호텔 함덕</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -5833,7 +5833,7 @@
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>색달식당</t>
+          <t>나도섬이다</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -5843,7 +5843,7 @@
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>책다방</t>
+          <t>스트라이크볼링센터</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -5853,7 +5853,7 @@
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>동문시장</t>
+          <t>Sangumburi Crater</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -5863,7 +5863,7 @@
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>표선리</t>
+          <t>서귀포의료원</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5873,7 +5873,7 @@
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>자구리 카페 몬들락 Cafe Mondeulrak</t>
+          <t>백약이 오름</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -5883,7 +5883,7 @@
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>사라오름 산정호수</t>
+          <t>Hibi &amp; Kohaku</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5893,7 +5893,7 @@
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>제주도 고근산</t>
+          <t>호텔위드제주</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -5903,7 +5903,7 @@
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>제주마로 펜션</t>
+          <t>산천단</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5913,7 +5913,7 @@
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>책방무사</t>
+          <t>Shmonga</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -5923,7 +5923,7 @@
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>항파두리 항몽유적지</t>
+          <t>쉬리의 언덕</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -5933,7 +5933,7 @@
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>코코몽 에코랜드</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5943,7 +5943,7 @@
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>이호테우 목마등대</t>
+          <t>올레길</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -5953,7 +5953,7 @@
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>단디501</t>
+          <t>수카사</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -5963,7 +5963,7 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>마담제 게스트하우스</t>
+          <t>정방 폭포</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -5973,7 +5973,7 @@
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>Paz</t>
+          <t>초콜릿랜드 / Chocolate Land</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -5983,7 +5983,7 @@
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>오조해녀의집</t>
+          <t>제주도 귤밭</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -5993,7 +5993,7 @@
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>제주한면가 濟州韓麵家</t>
+          <t>카페두가시</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -6003,7 +6003,7 @@
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>하례리 망장포구</t>
+          <t>팔도수산식당</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -6013,7 +6013,7 @@
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>브라운스위트 제주</t>
+          <t>제주마라도잠수함</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6023,7 +6023,7 @@
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>산방산</t>
+          <t>제주베니스랜드</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -6033,7 +6033,7 @@
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>제주세계자연유산센터</t>
+          <t>한담해안산책로</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -6043,7 +6043,7 @@
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>Suweolbong Trekking</t>
+          <t>제주하귀휴먼시아</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -6053,7 +6053,7 @@
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>제주 나인브릿지 CC</t>
+          <t>제주김만복본점</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -6063,7 +6063,7 @@
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>함덕해변</t>
+          <t>랍스터빈_jeju</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -6073,7 +6073,7 @@
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>사계여행</t>
+          <t>보롬왓</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -6083,7 +6083,7 @@
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>제주도 부영리조트</t>
+          <t>종가전복</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -6093,7 +6093,7 @@
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>돌마을공원</t>
+          <t>제주 성산읍</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -6103,7 +6103,7 @@
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>화순금모래해변</t>
+          <t>제주 월령선인장 군락지</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -6113,7 +6113,7 @@
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>제주신라면세점</t>
+          <t>서귀포잠수함</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -6123,7 +6123,7 @@
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>니모메빈티지라운지</t>
+          <t>석부작테마공원</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -6133,7 +6133,7 @@
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>나인브릿지</t>
+          <t>Howard Johnson Jeju Yeondong Hotel - 하워드존슨 제주 연동 호텔</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -6143,7 +6143,7 @@
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>월정스캔들</t>
+          <t>와흘리</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -6153,7 +6153,7 @@
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>노형 수목원가는길</t>
+          <t>백리향백반</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -6163,7 +6163,7 @@
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>저지예술인마을</t>
+          <t>시민갈비</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -6173,7 +6173,7 @@
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>기원뚝배기</t>
+          <t>탑동마차</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6183,7 +6183,7 @@
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>산방산 (Sanbangsan)</t>
+          <t>사라오름 산정호수</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -6193,7 +6193,7 @@
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>탑동해변공연장</t>
+          <t>헤밍웨이 하우스</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -6203,7 +6203,7 @@
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>노리매</t>
+          <t>오라게게스트하우스</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -6213,7 +6213,7 @@
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>스타벅스 제주성산dt점</t>
+          <t>더아트스테이호텔-The Artstay Hotel</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -6223,7 +6223,7 @@
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>닭머르</t>
+          <t>조천읍 북촌리</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -6233,7 +6233,7 @@
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>동한두기</t>
+          <t>인공위성 제주</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -6243,7 +6243,7 @@
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>더스파</t>
+          <t>제주도립미술관</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6253,7 +6253,7 @@
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>제주중앙로상점가</t>
+          <t>협재</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -6263,7 +6263,7 @@
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>환상숲곶자왈공원</t>
+          <t>자구리 카페 몬들락 Cafe Mondeulrak</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -6273,7 +6273,7 @@
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>휘슬락호텔</t>
+          <t>포팩토리</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -6283,7 +6283,7 @@
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>올레길 5코스</t>
+          <t>섭지코지 등대</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -6293,7 +6293,7 @@
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>Maison GLAD Jeju - 메종글래드 제주</t>
+          <t>제주인에이에이</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -6303,7 +6303,7 @@
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>미나마라</t>
+          <t>표선리</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -6313,7 +6313,7 @@
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>아름다운제주여행</t>
+          <t>제주도 표선</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -6323,7 +6323,7 @@
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>성산수구레국밥</t>
+          <t>네이처캔바스</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -6333,7 +6333,7 @@
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>탑동광장편의점</t>
+          <t>머스태쉬커피/머스태쉬하우스</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -6343,7 +6343,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>돼지촌</t>
+          <t>자매국수 노형점</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -6353,7 +6353,7 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>새별오름 정상</t>
+          <t>거멍국수</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -6363,7 +6363,7 @@
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>제주웰컴센터</t>
+          <t>팀버 커피 제주</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -6373,7 +6373,7 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>제주오리엔탈호텔</t>
+          <t>로컬크랩</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -6383,7 +6383,7 @@
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>서머셋 제주신화월드</t>
+          <t>제주초가집 곱들락</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -6393,7 +6393,7 @@
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>Ocean Suite Jeju Hotel (오션스위츠제주호텔)</t>
+          <t>제주도 휘닉스아일랜드</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -6403,7 +6403,7 @@
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>제주 생각하는 정원</t>
+          <t>신천목장</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -6413,7 +6413,7 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>연북정</t>
+          <t>섭지코지 (Seopjikoji)</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -6423,7 +6423,7 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>대춘해장국</t>
+          <t>칠돈가</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -6433,7 +6433,7 @@
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>바보까페</t>
+          <t>제주좋은날</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -6443,7 +6443,7 @@
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>오라게게스트하우스</t>
+          <t>이스트엔드</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -6453,7 +6453,7 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>미영이네식당</t>
+          <t>제주도 서귀포</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -6463,7 +6463,7 @@
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>내츄럴케이</t>
+          <t>호끌락80번지</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -6473,7 +6473,7 @@
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>제주스럽닭</t>
+          <t>벵디1967</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -6483,7 +6483,7 @@
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>바삭돈가스</t>
+          <t>우도 비양도</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -6493,7 +6493,7 @@
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>새우조나단</t>
+          <t>제주도 고근산</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -6503,7 +6503,7 @@
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>금능샌드</t>
+          <t>해비치호텔&amp;리조트 - Haevichi hotel &amp; resort</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -6513,7 +6513,7 @@
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>청초수물회&amp;섭국 [신관]</t>
+          <t>미영이네식당</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -6523,7 +6523,7 @@
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>Novotel Ambassador Daegu</t>
+          <t>카페록록 Loklok</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -6533,7 +6533,7 @@
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>참맛나김밥</t>
+          <t>비싸이드엠,beside-M</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -6543,7 +6543,7 @@
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>모슬포항 만선식당</t>
+          <t>성산포</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -6553,7 +6553,7 @@
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>리치망고 협재점</t>
+          <t>서귀포 칼호텔 (KAL Hotel Seogwipo)</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -6563,7 +6563,7 @@
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>가배</t>
+          <t>73st</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -6573,7 +6573,7 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>오롯</t>
+          <t>CAFE E.P.L</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -6583,7 +6583,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>떡하니</t>
+          <t>카페소금</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -6593,7 +6593,7 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>속초 엄지네포장마차</t>
+          <t>제주도 올레길 6코스 이중섭거리</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -6603,7 +6603,7 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>Cafe기억해</t>
+          <t>헤이미쉬제주_제주독채펜션</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -6613,7 +6613,7 @@
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>Dammann Frères_다만프레르_제주신화점</t>
+          <t>비양도 해녀촌</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -6623,7 +6623,7 @@
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>서귀포 이마트</t>
+          <t>반디앤로제이</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -6633,7 +6633,7 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>Jungle book by Alice</t>
+          <t>카페라능</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -6643,7 +6643,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>협제 혜변</t>
+          <t>대구국제공항</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -6653,7 +6653,7 @@
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>보목</t>
+          <t>이중섭 미술관</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -6663,7 +6663,7 @@
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>성산일출봉</t>
+          <t>Villadeato-빌라드아토</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -6673,7 +6673,7 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>제주아리아</t>
+          <t>오운커피</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -6683,7 +6683,7 @@
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>한림공원 Hallimpark</t>
+          <t>타시텔레</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -6693,7 +6693,7 @@
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>Saturdayisland</t>
+          <t>사락</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -6703,7 +6703,7 @@
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>Cafe Koomda</t>
+          <t>동문시장</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -6713,7 +6713,7 @@
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>동문로터리</t>
+          <t>모던하우스 제주점</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -6723,7 +6723,7 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>Seoul, Korea</t>
+          <t>카페하도섬/엠스테이펜션</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -6733,7 +6733,7 @@
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>한라생태숲</t>
+          <t>Cafe가호</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -6743,7 +6743,7 @@
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>제주아트리움"비밀의그림자"공연</t>
+          <t>그계절</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -6753,7 +6753,7 @@
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>관덕정</t>
+          <t>썬앤문리조트</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -6763,7 +6763,7 @@
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>알뜨르프로젝트2018</t>
+          <t>국수바다</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -6773,7 +6773,7 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>엉또폭포</t>
+          <t>하도해변</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -6783,7 +6783,7 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>유리의성과마법의숲</t>
+          <t>제주송정농원</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -6793,7 +6793,7 @@
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>호텔 아이엠</t>
+          <t>컴피하우스</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -6803,7 +6803,7 @@
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>쪼끌락 cafe</t>
+          <t>송당리 풍림다방</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -6813,7 +6813,7 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>카페2472</t>
+          <t>중문관광단지 (Jungmun Tourism Complex)</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -6823,7 +6823,7 @@
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>GD Cafe</t>
+          <t>호연스테이</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -6833,7 +6833,7 @@
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>우도 (Udo / 牛島)</t>
+          <t>제주 이자와</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -6843,7 +6843,7 @@
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>난드르바당</t>
+          <t>카페 하도섬</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -6853,7 +6853,7 @@
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>Teseum</t>
+          <t>한성식당</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -6863,7 +6863,7 @@
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>김녕 앞바다</t>
+          <t>광원</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -6873,7 +6873,7 @@
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>다랑쉬오름</t>
+          <t>제주항공</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -6883,7 +6883,7 @@
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>비자림 (Bija Forest, 榧子林)</t>
+          <t>블루밍아일랜드 Blooming Island</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -6893,7 +6893,7 @@
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>제주함덕 해수욕장</t>
+          <t>포근한우리집</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -6903,7 +6903,7 @@
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>델문도 제주 카페 Cafe Delmoondo</t>
+          <t>오메오메동문시장점</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -6913,7 +6913,7 @@
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>Segovia, Spain</t>
+          <t>스물다섯</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -6923,7 +6923,7 @@
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>동박낭</t>
+          <t>하늘고래</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -6933,7 +6933,7 @@
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>김녕 성세기 해변</t>
+          <t>playce</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -6943,7 +6943,7 @@
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
-          <t>제주도 더마파크</t>
+          <t>나주혁신도시</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -6953,7 +6953,7 @@
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
         <is>
-          <t>Halim jeju korea Selatan</t>
+          <t>Ocean Suites Jeju Hotel</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -6963,7 +6963,7 @@
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
         <is>
-          <t>제주도 귤밭</t>
+          <t>외돌개</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -6973,7 +6973,7 @@
     <row r="655">
       <c r="A655" s="1" t="inlineStr">
         <is>
-          <t>제주마라도잠수함</t>
+          <t>서건도</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -6983,7 +6983,7 @@
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>제주베니스랜드</t>
+          <t>Maxim 모카다방</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -6993,7 +6993,7 @@
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>제주 천제연폭포</t>
+          <t>Volskafé</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -7003,7 +7003,7 @@
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
         <is>
-          <t>제주도가는 비행기 안</t>
+          <t>제주도청</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -7013,7 +7013,7 @@
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
         <is>
-          <t>랍스터빈_jeju</t>
+          <t>Bonte museum</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -7023,7 +7023,7 @@
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
         <is>
-          <t>미도리</t>
+          <t>제주 팜스빌리지</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -7033,7 +7033,7 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>요요무문</t>
+          <t>김녕장</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -7043,7 +7043,7 @@
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
         <is>
-          <t>제주도 하도리</t>
+          <t>서귀포 워터월드</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -7053,7 +7053,7 @@
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
         <is>
-          <t>서양차관</t>
+          <t>구엄리 돌염전</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -7063,7 +7063,7 @@
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
         <is>
-          <t>Marevo Resort / 마레보 리조트</t>
+          <t>에코그린리조트</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -7073,7 +7073,7 @@
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
         <is>
-          <t>채점석빵집</t>
+          <t>올레안뜰</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -7083,7 +7083,7 @@
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
         <is>
-          <t>아도록</t>
+          <t>오설록</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -7093,7 +7093,7 @@
     <row r="667">
       <c r="A667" s="1" t="inlineStr">
         <is>
-          <t>Paju</t>
+          <t>상효원 수목원</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -7103,7 +7103,7 @@
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
         <is>
-          <t>고성리</t>
+          <t>MBC</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -7113,7 +7113,7 @@
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
         <is>
-          <t>구좌상회작업실</t>
+          <t>Seoul, South Korea</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -7123,7 +7123,7 @@
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
         <is>
-          <t>더본호텔</t>
+          <t>폴레폴레게스트하우스 -Polepole Guesthouse in Jeju</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -7133,7 +7133,7 @@
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t>Málaga, Spain</t>
+          <t>Seosan</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -7143,7 +7143,7 @@
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
         <is>
-          <t>화북1동</t>
+          <t>Ramada Plaza Jeju</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -7153,7 +7153,7 @@
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>오드랑베이커리</t>
+          <t>Saeyeon Bridge, Jeju Island</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -7163,7 +7163,7 @@
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>가시아방국수</t>
+          <t>하례정원</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -7173,7 +7173,7 @@
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>자연뜨락</t>
+          <t>테라로사-이사랑</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -7183,7 +7183,7 @@
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>비양도</t>
+          <t>고기마씸</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -7193,7 +7193,7 @@
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
         <is>
-          <t>제주하귀휴먼시아</t>
+          <t>블루마린하우스</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -7203,7 +7203,7 @@
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>보롬왓</t>
+          <t>구좌상회</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -7213,7 +7213,7 @@
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>정방폭포가 보이는 암벽위</t>
+          <t>깡촌흑돼지</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -7223,7 +7223,7 @@
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>제주대학교 교양강의동</t>
+          <t>개똥이네 동물원</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -7233,7 +7233,7 @@
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
         <is>
-          <t>쉬리의 언덕</t>
+          <t>제주국제공항 활주로 (Jeju Airport Runway)</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -7243,7 +7243,7 @@
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
         <is>
-          <t>코코몽 에코랜드</t>
+          <t>제주도 용두암</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -7253,7 +7253,7 @@
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>올레길</t>
+          <t>중문 마린파크 퍼시픽랜드</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -7263,7 +7263,7 @@
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>제주프레임스파빌</t>
+          <t>Oslob, Cebu</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -7273,7 +7273,7 @@
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>귀덕1리</t>
+          <t>十五夜 siboya 십오야</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -7283,7 +7283,7 @@
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>Shimo-kitazawa Station</t>
+          <t>해물뚝배기전문 재암식당</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -7293,7 +7293,7 @@
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>용두암해변</t>
+          <t>골목카페 옥수</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -7303,7 +7303,7 @@
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>Sensō-ji</t>
+          <t>순덕이네해산물장터</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -7313,7 +7313,7 @@
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>산천단</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -7323,7 +7323,7 @@
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>에코랜드 라벤다앤그린티로즈가든역</t>
+          <t>제주카페 스르륵</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -7333,7 +7333,7 @@
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>Jeju National University</t>
+          <t>신창해안도로</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -7343,7 +7343,7 @@
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>Jeju Island, South Korea - 제주도</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -7353,7 +7353,7 @@
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>웃뜨르</t>
+          <t>항파두리 항몽유적지</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -7363,7 +7363,7 @@
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
         <is>
-          <t>돈사돈</t>
+          <t>저녁정원</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -7373,7 +7373,7 @@
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
         <is>
-          <t>대굴대굴굴구이</t>
+          <t>금악리 제주힐링리조트</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -7383,7 +7383,7 @@
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
         <is>
-          <t>용담해안도로</t>
+          <t>고근산정상</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -7393,7 +7393,7 @@
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
         <is>
-          <t>Shmonga</t>
+          <t>책방무사</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -7403,7 +7403,7 @@
     <row r="698">
       <c r="A698" s="1" t="inlineStr">
         <is>
-          <t>호텔위드제주</t>
+          <t>효돈마을</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -7413,7 +7413,7 @@
     <row r="699">
       <c r="A699" s="1" t="inlineStr">
         <is>
-          <t>종가전복</t>
+          <t>한화아쿠아넷</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -7423,7 +7423,7 @@
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
         <is>
-          <t>관음사</t>
+          <t>전주콩나물국밥</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -7433,7 +7433,7 @@
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
         <is>
-          <t>큰엉전망대쉼터</t>
+          <t>장복호</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -7443,7 +7443,7 @@
     <row r="702">
       <c r="A702" s="1" t="inlineStr">
         <is>
-          <t>서귀포잠수함</t>
+          <t>맛있는 제주</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -7453,7 +7453,7 @@
     <row r="703">
       <c r="A703" s="1" t="inlineStr">
         <is>
-          <t>석부작테마공원</t>
+          <t>몽키비치</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -7463,7 +7463,7 @@
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
         <is>
-          <t>와흘리</t>
+          <t>박물관은 살아있다 제주 중문</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -7473,7 +7473,7 @@
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>초콜릿랜드 / Chocolate Land</t>
+          <t>네이처트레일</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -7483,7 +7483,7 @@
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
         <is>
-          <t>Yacht Tour Shangri-La</t>
+          <t>제주마로 펜션</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -7493,7 +7493,7 @@
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
         <is>
-          <t>정방 폭포</t>
+          <t>다이브스테이</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -7503,7 +7503,7 @@
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
         <is>
-          <t>1158 Cafe</t>
+          <t>Soror</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -7513,7 +7513,7 @@
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
         <is>
-          <t>Hibi &amp; Kohaku</t>
+          <t>투썸플레이스 제주애월한담점</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -7523,7 +7523,7 @@
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
         <is>
-          <t>제주비치호텔 함덕</t>
+          <t>이호테우 목마등대</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -7533,7 +7533,7 @@
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
         <is>
-          <t>서귀포향토오일장</t>
+          <t>서촌제 (서울촌놈인제주)</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -7543,7 +7543,7 @@
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
         <is>
-          <t>스트라이크볼링센터</t>
+          <t>오렌지블루스</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -7553,7 +7553,7 @@
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
         <is>
-          <t>Sangumburi Crater</t>
+          <t>성산일출봉 코앞 쉼터</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -7563,7 +7563,7 @@
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
         <is>
-          <t>서귀포의료원</t>
+          <t>Paz</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -7573,7 +7573,7 @@
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
         <is>
-          <t>백약이 오름</t>
+          <t>바라크라</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -7583,7 +7583,7 @@
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
         <is>
-          <t>오샹띠</t>
+          <t>모메든식당</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -7593,7 +7593,7 @@
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
         <is>
-          <t>Shineville Luxury Resort</t>
+          <t>마담제 게스트하우스</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -7603,7 +7603,7 @@
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>고관해물탕, 초량</t>
+          <t>유민 아르누보 콜렉션</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -7613,7 +7613,7 @@
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
         <is>
-          <t>제주인의밥상</t>
+          <t>Jeju Starbucks 용담dt</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -7623,7 +7623,7 @@
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
         <is>
-          <t>혜화동버거</t>
+          <t>단디501</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -7633,7 +7633,7 @@
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
         <is>
-          <t>군산 정상</t>
+          <t>오라1동</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -7643,7 +7643,7 @@
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
         <is>
-          <t>반딧불 한담</t>
+          <t>안녕, 육지사람</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -7653,7 +7653,7 @@
     <row r="723">
       <c r="A723" s="1" t="inlineStr">
         <is>
-          <t>제주 사랑분식</t>
+          <t>제주롯데시네마</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -7663,7 +7663,7 @@
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
         <is>
-          <t>못생김</t>
+          <t>바삭돈가스</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -7673,7 +7673,7 @@
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
         <is>
-          <t>중문국수나라</t>
+          <t>도라지식당</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -7683,7 +7683,7 @@
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
         <is>
-          <t>말미오름 (두산봉)</t>
+          <t>돈사돈중문점</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -7693,7 +7693,7 @@
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>Cafe멘도롱</t>
+          <t>시루애월카페</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -7703,7 +7703,7 @@
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>드렁큰디제이</t>
+          <t>디스이즈핫</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -7713,7 +7713,7 @@
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
         <is>
-          <t>협재칼국수</t>
+          <t>바당지기식당</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -7723,7 +7723,7 @@
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
         <is>
-          <t>과일애</t>
+          <t>서귀포 기억나는집</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -7733,7 +7733,7 @@
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
         <is>
-          <t>카페송키</t>
+          <t>버드나무집</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -7743,7 +7743,7 @@
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
         <is>
-          <t>홍대개미제주</t>
+          <t>하림각</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -7753,7 +7753,7 @@
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
         <is>
-          <t>리틀이태리 비스트로</t>
+          <t>Coco Mama</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -7763,7 +7763,7 @@
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
         <is>
-          <t>훈남횟집</t>
+          <t>소금바치 순이네</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -7773,7 +7773,7 @@
     <row r="735">
       <c r="A735" s="1" t="inlineStr">
         <is>
-          <t>제주거울미로 이상한나라의앨리스</t>
+          <t>탕196</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -7783,7 +7783,7 @@
     <row r="736">
       <c r="A736" s="1" t="inlineStr">
         <is>
-          <t>섶섬해녀할망카페</t>
+          <t>제주마당</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -7793,7 +7793,7 @@
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
         <is>
-          <t>가드망제</t>
+          <t>세종시</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -7803,7 +7803,7 @@
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>하노이안브라더스</t>
+          <t>꽃이다카페</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -7813,7 +7813,7 @@
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>아산 음봉</t>
+          <t>김녕함바그집</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -7823,7 +7823,7 @@
     <row r="740">
       <c r="A740" s="1" t="inlineStr">
         <is>
-          <t>검은여식당</t>
+          <t>한라산 정상 해발 1,950m</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -7833,7 +7833,7 @@
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
         <is>
-          <t>미미본가</t>
+          <t>검은여식당</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -7843,7 +7843,7 @@
     <row r="742">
       <c r="A742" s="1" t="inlineStr">
         <is>
-          <t>제주시동문시장</t>
+          <t>아산 음봉</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -7853,7 +7853,7 @@
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
         <is>
-          <t>쿠쿠아림</t>
+          <t>하노이안브라더스</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -7863,7 +7863,7 @@
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
         <is>
-          <t>마구로쇼쿠도</t>
+          <t>군산 정상</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -7873,7 +7873,7 @@
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
         <is>
-          <t>털보네고양이</t>
+          <t>우리두리게스트하우스</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -7883,7 +7883,7 @@
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
         <is>
-          <t>풍미독서</t>
+          <t>미미본가</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -7893,7 +7893,7 @@
     <row r="747">
       <c r="A747" s="1" t="inlineStr">
         <is>
-          <t>Arc de Triomphe</t>
+          <t>담앤루리조트</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -7913,7 +7913,7 @@
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
         <is>
-          <t>바당지기식당</t>
+          <t>Gimpo International Airport Station</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -7923,7 +7923,7 @@
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
         <is>
-          <t>김녕함바그집</t>
+          <t>서귀동 298-5 '세계의 가정식'</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -7933,7 +7933,7 @@
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
         <is>
-          <t>서귀포 기억나는집</t>
+          <t>U-do Bong( 우도봉)</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -7943,7 +7943,7 @@
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>버드나무집</t>
+          <t>마레벤또</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -7953,7 +7953,7 @@
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
         <is>
-          <t>하림각</t>
+          <t>로드129</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -7963,7 +7963,7 @@
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
         <is>
-          <t>Coco Mama</t>
+          <t>성산일출봉 게스트하우스 파티 띵까게스트하우스</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -7973,7 +7973,7 @@
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
         <is>
-          <t>소금바치 순이네</t>
+          <t>한모살식당</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -7983,7 +7983,7 @@
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
         <is>
-          <t>탕196</t>
+          <t>마포식당</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -7993,7 +7993,7 @@
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
         <is>
-          <t>제주마당</t>
+          <t>은실이네 게스트하우스</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -8003,7 +8003,7 @@
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
         <is>
-          <t>어조횟집</t>
+          <t>제주시동문시장</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -8013,7 +8013,7 @@
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
         <is>
-          <t>제주시 화북동</t>
+          <t>쿠쿠아림</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -8023,7 +8023,7 @@
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>바굥식당</t>
+          <t>마구로쇼쿠도</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -8033,7 +8033,7 @@
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
         <is>
-          <t>벵디</t>
+          <t>털보네고양이</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -8043,7 +8043,7 @@
     <row r="762">
       <c r="A762" s="1" t="inlineStr">
         <is>
-          <t>연화키친</t>
+          <t>풍미독서</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -8053,7 +8053,7 @@
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
         <is>
-          <t>제주시농협하나로마트</t>
+          <t>목수금토일</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -8063,7 +8063,7 @@
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
         <is>
-          <t>돈테일러익스프레</t>
+          <t>Kairos jeju</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -8073,7 +8073,7 @@
     <row r="765">
       <c r="A765" s="1" t="inlineStr">
         <is>
-          <t>제주돈아</t>
+          <t>반딧불 한담</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -8083,7 +8083,7 @@
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
         <is>
-          <t>쉼표</t>
+          <t>동광 pâtisserie '東光'</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -8093,7 +8093,7 @@
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>공천포 식당</t>
+          <t>카페닐스</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8103,7 +8103,7 @@
     <row r="768">
       <c r="A768" s="1" t="inlineStr">
         <is>
-          <t>제주한라수목원♥</t>
+          <t>바굥식당</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -8113,7 +8113,7 @@
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
         <is>
-          <t>Cafe카페인</t>
+          <t>새우조나단</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -8123,7 +8123,7 @@
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
         <is>
-          <t>도토리키친</t>
+          <t>2월22일 브런치카페</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -8133,7 +8133,7 @@
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
         <is>
-          <t>돈물국수</t>
+          <t>어라운드 폴리 Around Follie</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -8143,7 +8143,7 @@
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
         <is>
-          <t>사는맛 먹는맛</t>
+          <t>시루애월 소길점</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -8153,7 +8153,7 @@
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
         <is>
-          <t>자갈자갈</t>
+          <t>바람코지 게스트하우스&amp;카페</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -8163,7 +8163,7 @@
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
         <is>
-          <t>한복입는 선흘집</t>
+          <t>삼다버거</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -8173,7 +8173,7 @@
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
         <is>
-          <t>봉개동</t>
+          <t>어반가라지</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -8183,7 +8183,7 @@
     <row r="776">
       <c r="A776" s="1" t="inlineStr">
         <is>
-          <t>쭈니창고</t>
+          <t>수제홍과일모찌</t>
         </is>
       </c>
       <c r="B776" t="n">
@@ -8193,7 +8193,7 @@
     <row r="777">
       <c r="A777" s="1" t="inlineStr">
         <is>
-          <t>모이세해장국</t>
+          <t>슬슬슬로우</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -8203,7 +8203,7 @@
     <row r="778">
       <c r="A778" s="1" t="inlineStr">
         <is>
-          <t>지붕위제주바다</t>
+          <t>원더먼트제주</t>
         </is>
       </c>
       <c r="B778" t="n">
@@ -8213,7 +8213,7 @@
     <row r="779">
       <c r="A779" s="1" t="inlineStr">
         <is>
-          <t>월정곰닭</t>
+          <t>우진해장국</t>
         </is>
       </c>
       <c r="B779" t="n">
@@ -8223,7 +8223,7 @@
     <row r="780">
       <c r="A780" s="1" t="inlineStr">
         <is>
-          <t>2월22일 브런치카페</t>
+          <t>에코랜드테마파크</t>
         </is>
       </c>
       <c r="B780" t="n">
@@ -8233,7 +8233,7 @@
     <row r="781">
       <c r="A781" s="1" t="inlineStr">
         <is>
-          <t>무수천계곡</t>
+          <t>Mansion37.5</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -8243,7 +8243,7 @@
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
         <is>
-          <t>어라운드 폴리 Around Follie</t>
+          <t>게으른날</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -8253,7 +8253,7 @@
     <row r="783">
       <c r="A783" s="1" t="inlineStr">
         <is>
-          <t>시루애월 소길점</t>
+          <t>시월의리브라</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -8263,7 +8263,7 @@
     <row r="784">
       <c r="A784" s="1" t="inlineStr">
         <is>
-          <t>바람코지 게스트하우스&amp;카페</t>
+          <t>어조횟집</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -8273,7 +8273,7 @@
     <row r="785">
       <c r="A785" s="1" t="inlineStr">
         <is>
-          <t>삼다버거</t>
+          <t>금능샌드</t>
         </is>
       </c>
       <c r="B785" t="n">
@@ -8283,7 +8283,7 @@
     <row r="786">
       <c r="A786" s="1" t="inlineStr">
         <is>
-          <t>어반가라지</t>
+          <t>가드망제</t>
         </is>
       </c>
       <c r="B786" t="n">
@@ -8293,7 +8293,7 @@
     <row r="787">
       <c r="A787" s="1" t="inlineStr">
         <is>
-          <t>시민갈비</t>
+          <t>제주 사랑분식</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -8303,7 +8303,7 @@
     <row r="788">
       <c r="A788" s="1" t="inlineStr">
         <is>
-          <t>슬슬슬로우</t>
+          <t>제주한면가 濟州韓麵家</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -8313,7 +8313,7 @@
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
         <is>
-          <t>우진해장국</t>
+          <t>못생김</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -8323,7 +8323,7 @@
     <row r="790">
       <c r="A790" s="1" t="inlineStr">
         <is>
-          <t>북촌플레이스</t>
+          <t>중문국수나라</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -8333,7 +8333,7 @@
     <row r="791">
       <c r="A791" s="1" t="inlineStr">
         <is>
-          <t>Mansion37.5</t>
+          <t>말미오름 (두산봉)</t>
         </is>
       </c>
       <c r="B791" t="n">
@@ -8343,7 +8343,7 @@
     <row r="792">
       <c r="A792" s="1" t="inlineStr">
         <is>
-          <t>덕인당 소락</t>
+          <t>Cafe멘도롱</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -8353,7 +8353,7 @@
     <row r="793">
       <c r="A793" s="1" t="inlineStr">
         <is>
-          <t>포팩토리</t>
+          <t>드렁큰디제이</t>
         </is>
       </c>
       <c r="B793" t="n">
@@ -8363,7 +8363,7 @@
     <row r="794">
       <c r="A794" s="1" t="inlineStr">
         <is>
-          <t>탑동마차</t>
+          <t>협재칼국수</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -8373,7 +8373,7 @@
     <row r="795">
       <c r="A795" s="1" t="inlineStr">
         <is>
-          <t>1342틈</t>
+          <t>과일애</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -8383,7 +8383,7 @@
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
         <is>
-          <t>백리향백반</t>
+          <t>카페송키</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -8393,7 +8393,7 @@
     <row r="797">
       <c r="A797" s="1" t="inlineStr">
         <is>
-          <t>푸릇프릍</t>
+          <t>홍대개미제주</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -8403,7 +8403,7 @@
     <row r="798">
       <c r="A798" s="1" t="inlineStr">
         <is>
-          <t>마포식당</t>
+          <t>리틀이태리 비스트로</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -8413,7 +8413,7 @@
     <row r="799">
       <c r="A799" s="1" t="inlineStr">
         <is>
-          <t>한모살식당</t>
+          <t>훈남횟집</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -8423,7 +8423,7 @@
     <row r="800">
       <c r="A800" s="1" t="inlineStr">
         <is>
-          <t>Villadeato-빌라드아토</t>
+          <t>평화통일불사리탑사</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -8433,7 +8433,7 @@
     <row r="801">
       <c r="A801" s="1" t="inlineStr">
         <is>
-          <t>행원포구</t>
+          <t>섶섬해녀할망카페</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -8443,7 +8443,7 @@
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
         <is>
-          <t>칠돈가 본점</t>
+          <t>마모루</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -8453,7 +8453,7 @@
     <row r="803">
       <c r="A803" s="1" t="inlineStr">
         <is>
-          <t>Jerry's PUB</t>
+          <t>복자씨연탄구이</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -8463,7 +8463,7 @@
     <row r="804">
       <c r="A804" s="1" t="inlineStr">
         <is>
-          <t>제주칼국수 제주해물탕</t>
+          <t>청초수물회&amp;섭국 [신관]</t>
         </is>
       </c>
       <c r="B804" t="n">
@@ -8473,7 +8473,7 @@
     <row r="805">
       <c r="A805" s="1" t="inlineStr">
         <is>
-          <t>일도전복</t>
+          <t>종달스토리 게스트하우스</t>
         </is>
       </c>
       <c r="B805" t="n">
@@ -8483,7 +8483,7 @@
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
         <is>
-          <t>블루밍아일랜드 Blooming Island</t>
+          <t>엉장매하우스</t>
         </is>
       </c>
       <c r="B806" t="n">
@@ -8493,7 +8493,7 @@
     <row r="807">
       <c r="A807" s="1" t="inlineStr">
         <is>
-          <t>광원</t>
+          <t>키작은삼촌</t>
         </is>
       </c>
       <c r="B807" t="n">
@@ -8503,7 +8503,7 @@
     <row r="808">
       <c r="A808" s="1" t="inlineStr">
         <is>
-          <t>촵촵 - Chwap Chwap</t>
+          <t>토도</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -8513,7 +8513,7 @@
     <row r="809">
       <c r="A809" s="1" t="inlineStr">
         <is>
-          <t>신흥동 일본식가옥</t>
+          <t>여름문구사</t>
         </is>
       </c>
       <c r="B809" t="n">
@@ -8523,7 +8523,7 @@
     <row r="810">
       <c r="A810" s="1" t="inlineStr">
         <is>
-          <t>소렉</t>
+          <t>제주시 고요남</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -8533,7 +8533,7 @@
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
         <is>
-          <t>8월의크리스마스 초원사진관</t>
+          <t>해녀엄마의집</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -8543,7 +8543,7 @@
     <row r="812">
       <c r="A812" s="1" t="inlineStr">
         <is>
-          <t>문치비</t>
+          <t>서촌제</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -8553,7 +8553,7 @@
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
         <is>
-          <t>이스트엔드</t>
+          <t>제주 오션스토리</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -8563,7 +8563,7 @@
     <row r="814">
       <c r="A814" s="1" t="inlineStr">
         <is>
-          <t>제주신화월드 메리어트 리조트관</t>
+          <t>잔향</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -8573,7 +8573,7 @@
     <row r="815">
       <c r="A815" s="1" t="inlineStr">
         <is>
-          <t>날것</t>
+          <t>가시아방</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -8583,7 +8583,7 @@
     <row r="816">
       <c r="A816" s="1" t="inlineStr">
         <is>
-          <t>오라1동</t>
+          <t>면뽑는선생 만두빚는아내</t>
         </is>
       </c>
       <c r="B816" t="n">
@@ -8593,7 +8593,7 @@
     <row r="817">
       <c r="A817" s="1" t="inlineStr">
         <is>
-          <t>노형로터리</t>
+          <t>바다이야기</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -8603,7 +8603,7 @@
     <row r="818">
       <c r="A818" s="1" t="inlineStr">
         <is>
-          <t>상호네숯불구이</t>
+          <t>소렉</t>
         </is>
       </c>
       <c r="B818" t="n">
@@ -8613,7 +8613,7 @@
     <row r="819">
       <c r="A819" s="1" t="inlineStr">
         <is>
-          <t>바다이야기</t>
+          <t>신설오름</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -8623,7 +8623,7 @@
     <row r="820">
       <c r="A820" s="1" t="inlineStr">
         <is>
-          <t>핸드테일러 제주점</t>
+          <t>상호네숯불구이</t>
         </is>
       </c>
       <c r="B820" t="n">
@@ -8633,7 +8633,7 @@
     <row r="821">
       <c r="A821" s="1" t="inlineStr">
         <is>
-          <t>제주시 고요남</t>
+          <t>산방굴사 (Sanbanggulsa Temple 山房窟寺)</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -8643,7 +8643,7 @@
     <row r="822">
       <c r="A822" s="1" t="inlineStr">
         <is>
-          <t>우도 하고수동해수욕장</t>
+          <t>혜화동버거</t>
         </is>
       </c>
       <c r="B822" t="n">
@@ -8653,7 +8653,7 @@
     <row r="823">
       <c r="A823" s="1" t="inlineStr">
         <is>
-          <t>렛츠런팜제주</t>
+          <t>칠돈가 본점</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -8663,7 +8663,7 @@
     <row r="824">
       <c r="A824" s="1" t="inlineStr">
         <is>
-          <t>엉장매하우스</t>
+          <t>고관해물탕, 초량</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -8673,7 +8673,7 @@
     <row r="825">
       <c r="A825" s="1" t="inlineStr">
         <is>
-          <t>키작은삼촌</t>
+          <t>속초 엄지네포장마차</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -8683,7 +8683,7 @@
     <row r="826">
       <c r="A826" s="1" t="inlineStr">
         <is>
-          <t>토도</t>
+          <t>책다방</t>
         </is>
       </c>
       <c r="B826" t="n">
@@ -8693,7 +8693,7 @@
     <row r="827">
       <c r="A827" s="1" t="inlineStr">
         <is>
-          <t>인사리</t>
+          <t>객의하우스</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -8703,7 +8703,7 @@
     <row r="828">
       <c r="A828" s="1" t="inlineStr">
         <is>
-          <t>제주시도두항</t>
+          <t>색달식당</t>
         </is>
       </c>
       <c r="B828" t="n">
@@ -8713,7 +8713,7 @@
     <row r="829">
       <c r="A829" s="1" t="inlineStr">
         <is>
-          <t>해녀엄마의집</t>
+          <t>내츄럴케이</t>
         </is>
       </c>
       <c r="B829" t="n">
@@ -8723,7 +8723,7 @@
     <row r="830">
       <c r="A830" s="1" t="inlineStr">
         <is>
-          <t>면뽑는선생 만두빚는아내</t>
+          <t>제주스럽닭</t>
         </is>
       </c>
       <c r="B830" t="n">
@@ -8733,7 +8733,7 @@
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
         <is>
-          <t>서촌제</t>
+          <t>대춘해장국</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -8743,7 +8743,7 @@
     <row r="832">
       <c r="A832" s="1" t="inlineStr">
         <is>
-          <t>제주 오션스토리</t>
+          <t>Novotel Ambassador Daegu</t>
         </is>
       </c>
       <c r="B832" t="n">
@@ -8753,7 +8753,7 @@
     <row r="833">
       <c r="A833" s="1" t="inlineStr">
         <is>
-          <t>도두항</t>
+          <t>참맛나김밥</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -8763,7 +8763,7 @@
     <row r="834">
       <c r="A834" s="1" t="inlineStr">
         <is>
-          <t>건축카페 - 섶섬이보이는</t>
+          <t>모슬포항 만선식당</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -8773,7 +8773,7 @@
     <row r="835">
       <c r="A835" s="1" t="inlineStr">
         <is>
-          <t>가시아방</t>
+          <t>리치망고 협재점</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -8783,7 +8783,7 @@
     <row r="836">
       <c r="A836" s="1" t="inlineStr">
         <is>
-          <t>금바리</t>
+          <t>오롯</t>
         </is>
       </c>
       <c r="B836" t="n">
@@ -8793,7 +8793,7 @@
     <row r="837">
       <c r="A837" s="1" t="inlineStr">
         <is>
-          <t>은실이네 게스트하우스</t>
+          <t>떡하니</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -8803,7 +8803,7 @@
     <row r="838">
       <c r="A838" s="1" t="inlineStr">
         <is>
-          <t>삼미흑돼지</t>
+          <t>Shineville Luxury Resort</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -8813,7 +8813,7 @@
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
         <is>
-          <t>수제홍과일모찌</t>
+          <t>브라운스위트 제주</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -8823,7 +8823,7 @@
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
         <is>
-          <t>성산일출봉 게스트하우스 파티 띵까게스트하우스</t>
+          <t>바램목장&amp;카페</t>
         </is>
       </c>
       <c r="B840" t="n">
@@ -8833,7 +8833,7 @@
     <row r="841">
       <c r="A841" s="1" t="inlineStr">
         <is>
-          <t>큰갯물횟집</t>
+          <t>비긴어게인펜션</t>
         </is>
       </c>
       <c r="B841" t="n">
@@ -8843,7 +8843,7 @@
     <row r="842">
       <c r="A842" s="1" t="inlineStr">
         <is>
-          <t>베이크샵스니프 bakeshop sniff</t>
+          <t>독개물항</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -8853,7 +8853,7 @@
     <row r="843">
       <c r="A843" s="1" t="inlineStr">
         <is>
-          <t>해왓</t>
+          <t>Gwakji Beaches</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -8863,7 +8863,7 @@
     <row r="844">
       <c r="A844" s="1" t="inlineStr">
         <is>
-          <t>독개물항</t>
+          <t>Gimpo International Airport - 金浦国际机场 - 김포공항</t>
         </is>
       </c>
       <c r="B844" t="n">
@@ -8873,7 +8873,7 @@
     <row r="845">
       <c r="A845" s="1" t="inlineStr">
         <is>
-          <t>복자씨연탄구이</t>
+          <t>Tj Guesthouse</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -8883,7 +8883,7 @@
     <row r="846">
       <c r="A846" s="1" t="inlineStr">
         <is>
-          <t>동광 pâtisserie '東光'</t>
+          <t>절물 자연 휴양림</t>
         </is>
       </c>
       <c r="B846" t="n">
@@ -8893,7 +8893,7 @@
     <row r="847">
       <c r="A847" s="1" t="inlineStr">
         <is>
-          <t>마모루</t>
+          <t>블루라군다이브-bluelagoondive</t>
         </is>
       </c>
       <c r="B847" t="n">
@@ -8903,7 +8903,7 @@
     <row r="848">
       <c r="A848" s="1" t="inlineStr">
         <is>
-          <t>제주송정농원</t>
+          <t>달사막</t>
         </is>
       </c>
       <c r="B848" t="n">
@@ -8913,7 +8913,7 @@
     <row r="849">
       <c r="A849" s="1" t="inlineStr">
         <is>
-          <t>제주 이자와</t>
+          <t>교래 손 칼국수</t>
         </is>
       </c>
       <c r="B849" t="n">
@@ -8923,7 +8923,7 @@
     <row r="850">
       <c r="A850" s="1" t="inlineStr">
         <is>
-          <t>제주시</t>
+          <t>Hwasun</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -8933,7 +8933,7 @@
     <row r="851">
       <c r="A851" s="1" t="inlineStr">
         <is>
-          <t>카페 하도섬</t>
+          <t>제주시 아라동</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -8943,7 +8943,7 @@
     <row r="852">
       <c r="A852" s="1" t="inlineStr">
         <is>
-          <t>서귀동 298-5 '세계의 가정식'</t>
+          <t>탐나버거</t>
         </is>
       </c>
       <c r="B852" t="n">
@@ -8953,7 +8953,7 @@
     <row r="853">
       <c r="A853" s="1" t="inlineStr">
         <is>
-          <t>오메오메동문시장점</t>
+          <t>외쿡식당</t>
         </is>
       </c>
       <c r="B853" t="n">
@@ -8963,7 +8963,7 @@
     <row r="854">
       <c r="A854" s="1" t="inlineStr">
         <is>
-          <t>U-do Bong( 우도봉)</t>
+          <t>해바라기 분식</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -8973,7 +8973,7 @@
     <row r="855">
       <c r="A855" s="1" t="inlineStr">
         <is>
-          <t>국수바다</t>
+          <t>제주시</t>
         </is>
       </c>
       <c r="B855" t="n">
@@ -8983,7 +8983,7 @@
     <row r="856">
       <c r="A856" s="1" t="inlineStr">
         <is>
-          <t>마레벤또</t>
+          <t>베이크샵스니프 bakeshop sniff</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -8993,7 +8993,7 @@
     <row r="857">
       <c r="A857" s="1" t="inlineStr">
         <is>
-          <t>로드129</t>
+          <t>해왓</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -9003,7 +9003,7 @@
     <row r="858">
       <c r="A858" s="1" t="inlineStr">
         <is>
-          <t>팀버 커피 제주</t>
+          <t>제주도 하늘 위</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -9013,7 +9013,7 @@
     <row r="859">
       <c r="A859" s="1" t="inlineStr">
         <is>
-          <t>해바라기 분식</t>
+          <t>중문 단지 삼원정</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -9023,7 +9023,7 @@
     <row r="860">
       <c r="A860" s="1" t="inlineStr">
         <is>
-          <t>제주국제공항 활주로 (Jeju Airport Runway)</t>
+          <t>소우</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -9033,7 +9033,7 @@
     <row r="861">
       <c r="A861" s="1" t="inlineStr">
         <is>
-          <t>황궁쟁반짜장</t>
+          <t>La Tortuga</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -9053,7 +9053,7 @@
     <row r="863">
       <c r="A863" s="1" t="inlineStr">
         <is>
-          <t>올레안뜰</t>
+          <t>Jerry's PUB</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -9063,7 +9063,7 @@
     <row r="864">
       <c r="A864" s="1" t="inlineStr">
         <is>
-          <t>소우</t>
+          <t>제주칼국수 제주해물탕</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -9073,7 +9073,7 @@
     <row r="865">
       <c r="A865" s="1" t="inlineStr">
         <is>
-          <t>Gwakji Beaches</t>
+          <t>일도전복</t>
         </is>
       </c>
       <c r="B865" t="n">
@@ -9083,7 +9083,7 @@
     <row r="866">
       <c r="A866" s="1" t="inlineStr">
         <is>
-          <t>중문 단지 삼원정</t>
+          <t>촵촵 - Chwap Chwap</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -9093,7 +9093,7 @@
     <row r="867">
       <c r="A867" s="1" t="inlineStr">
         <is>
-          <t>모메든식당</t>
+          <t>M-STAY / 엠스테이</t>
         </is>
       </c>
       <c r="B867" t="n">
@@ -9103,7 +9103,7 @@
     <row r="868">
       <c r="A868" s="1" t="inlineStr">
         <is>
-          <t>Hallasan</t>
+          <t>행원포구</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -9113,7 +9113,7 @@
     <row r="869">
       <c r="A869" s="1" t="inlineStr">
         <is>
-          <t>도라지식당</t>
+          <t>신흥동 일본식가옥</t>
         </is>
       </c>
       <c r="B869" t="n">
@@ -9123,7 +9123,7 @@
     <row r="870">
       <c r="A870" s="1" t="inlineStr">
         <is>
-          <t>해비치호텔&amp;리조트 - Haevichi hotel &amp; resort</t>
+          <t>8월의크리스마스 초원사진관</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -9133,7 +9133,7 @@
     <row r="871">
       <c r="A871" s="1" t="inlineStr">
         <is>
-          <t>아날로그감귤밭</t>
+          <t>문치비</t>
         </is>
       </c>
       <c r="B871" t="n">
@@ -9143,7 +9143,7 @@
     <row r="872">
       <c r="A872" s="1" t="inlineStr">
         <is>
-          <t>장복호</t>
+          <t>협재 수우동</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -9153,7 +9153,7 @@
     <row r="873">
       <c r="A873" s="1" t="inlineStr">
         <is>
-          <t>교래 손 칼국수</t>
+          <t>제주신화월드 메리어트 리조트관</t>
         </is>
       </c>
       <c r="B873" t="n">
@@ -9163,7 +9163,7 @@
     <row r="874">
       <c r="A874" s="1" t="inlineStr">
         <is>
-          <t>제주시 아라동</t>
+          <t>날것</t>
         </is>
       </c>
       <c r="B874" t="n">
@@ -9173,7 +9173,7 @@
     <row r="875">
       <c r="A875" s="1" t="inlineStr">
         <is>
-          <t>탐나버거</t>
+          <t>삼미흑돼지</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -9183,7 +9183,7 @@
     <row r="876">
       <c r="A876" s="1" t="inlineStr">
         <is>
-          <t>피규어 뮤지엄 제주  Figure Museum Jeju</t>
+          <t>핸드테일러 제주점</t>
         </is>
       </c>
       <c r="B876" t="n">
@@ -9193,7 +9193,7 @@
     <row r="877">
       <c r="A877" s="1" t="inlineStr">
         <is>
-          <t>외쿡식당</t>
+          <t>카페어떤오후</t>
         </is>
       </c>
       <c r="B877" t="n">
@@ -9203,7 +9203,7 @@
     <row r="878">
       <c r="A878" s="1" t="inlineStr">
         <is>
-          <t>디스이즈핫</t>
+          <t>큰갯물횟집</t>
         </is>
       </c>
       <c r="B878" t="n">
